--- a/data/en/sector.xlsx
+++ b/data/en/sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABD964B-AA04-4223-A990-FE9453C16F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA96DF-4401-4C96-8408-18C2E3B02E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19812" windowHeight="11520" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -432,25 +432,25 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2013</v>
       </c>
@@ -508,7 +508,7 @@
         <v>55400</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -537,7 +537,7 @@
         <v>55400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -566,7 +566,7 @@
         <v>56539.513139359988</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -595,7 +595,7 @@
         <v>55897.824337500009</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
@@ -624,7 +624,7 @@
         <v>57164.670134281812</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -653,7 +653,36 @@
         <v>54469.966149016749</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="1">
+        <v>27102</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14027</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3347</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2604</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1481</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4215</v>
+      </c>
+      <c r="I8" s="1">
+        <v>54794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
   </sheetData>
